--- a/biology/Médecine/Virus_de_la_grippe_A_(H7N2)/Virus_de_la_grippe_A_(H7N2).xlsx
+++ b/biology/Médecine/Virus_de_la_grippe_A_(H7N2)/Virus_de_la_grippe_A_(H7N2).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sous-type H7N2 du virus de la grippe A fait référence aux types de deux antigènes présents à la surface du virus : l'hémagglutinine de type 7 et la neuraminidase de type 2. Le virus de la grippe A est un virus à ARN monocaténaire de polarité négative à génome segmenté[2] (8 segments) qui appartient au genre Alphainfluenzavirus de la famille des Orthomyxoviridae.
-Il s'agit d'un sous-type considéré comme faiblement pathogène (LPAI), mais il est néanmoins susceptible de se réassortir en variantes hautement pathogènes[3] (HPAI H7N2) en présence de virus de la grippe A H5 et H7 si les conditions sont favorables. La présence de ce virus a été détectée par sérologie chez des humains[4] sans que cela se traduise par des symptômes sévères. Il affecte habituellement des oiseaux, provoquant des épidémies dans les élevages de volailles, et peut également toucher les porcs et les chats ; la contamination d'humains demeure rare.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sous-type H7N2 du virus de la grippe A fait référence aux types de deux antigènes présents à la surface du virus : l'hémagglutinine de type 7 et la neuraminidase de type 2. Le virus de la grippe A est un virus à ARN monocaténaire de polarité négative à génome segmenté (8 segments) qui appartient au genre Alphainfluenzavirus de la famille des Orthomyxoviridae.
+Il s'agit d'un sous-type considéré comme faiblement pathogène (LPAI), mais il est néanmoins susceptible de se réassortir en variantes hautement pathogènes (HPAI H7N2) en présence de virus de la grippe A H5 et H7 si les conditions sont favorables. La présence de ce virus a été détectée par sérologie chez des humains sans que cela se traduise par des symptômes sévères. Il affecte habituellement des oiseaux, provoquant des épidémies dans les élevages de volailles, et peut également toucher les porcs et les chats ; la contamination d'humains demeure rare.
 </t>
         </is>
       </c>
